--- a/OC, costs and payments_HUF.xlsx
+++ b/OC, costs and payments_HUF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communitystudentiunina-my.sharepoint.com/personal/antonio_paparella_unina_it/Documents/Dott_drive/Presentazioni/Budapest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonio/Documents/GitHub/Replication_Risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="360" documentId="13_ncr:1_{BA1174D6-8DF2-40E0-AE4B-00EFA7D6D450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0234D46B-18AD-604D-8BA5-D10B49863B8A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0242FD53-ACF9-8A41-9E65-27240394CE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost calculation" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>ECU</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Determine the total cost as the sum of the expected ECU  multiplied for the sample size</t>
+  </si>
+  <si>
+    <t>Determine the Opportunity Cost</t>
   </si>
 </sst>
 </file>
@@ -206,9 +209,16 @@
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$HUF]_-;\-* #,##0.00\ [$HUF]_-;_-* &quot;-&quot;??\ [$HUF]_-;_-@_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -723,123 +733,121 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1124,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BD13AD-62D8-2040-A8FF-096EE87E1508}">
   <dimension ref="B1:AA80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1176,31 +1184,31 @@
       <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="P3" s="7"/>
-      <c r="R3" s="90" t="s">
+      <c r="R3" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
     </row>
     <row r="4" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="D4" s="34"/>
       <c r="P4" s="7"/>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
@@ -1209,26 +1217,26 @@
         <v>22</v>
       </c>
       <c r="E5" s="39"/>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="81">
         <v>2800</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="85" t="s">
         <v>36</v>
       </c>
       <c r="P5" s="7"/>
-      <c r="R5" s="90" t="s">
+      <c r="R5" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
     </row>
     <row r="6" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -1236,22 +1244,22 @@
       <c r="D6" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="81">
+      <c r="E6" s="74"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="80">
         <v>1</v>
       </c>
       <c r="P6" s="7"/>
-      <c r="R6" s="90" t="s">
+      <c r="R6" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
     </row>
     <row r="7" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
@@ -1260,10 +1268,10 @@
         <v>32</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="G7" s="78">
+      <c r="G7" s="77">
         <v>20</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="84" t="s">
         <v>35</v>
       </c>
       <c r="P7" s="7"/>
@@ -1271,14 +1279,14 @@
     <row r="8" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="85">
+      <c r="G8" s="82">
         <f>G5*G6/(60/G7)</f>
         <v>933.33333333333337</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="84" t="s">
         <v>37</v>
       </c>
       <c r="P8" s="7"/>
@@ -1320,9 +1328,13 @@
       <c r="D12" s="43">
         <v>1</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="44">
+        <v>2</v>
+      </c>
       <c r="G12" s="45"/>
-      <c r="H12" s="44"/>
+      <c r="H12" s="44">
+        <v>150</v>
+      </c>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.2">
@@ -1332,70 +1344,85 @@
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="G14" s="55" t="s">
+      <c r="E14" s="55"/>
+      <c r="G14" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="J14" s="55" t="s">
+      <c r="H14" s="55"/>
+      <c r="J14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="56"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="55"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="73" t="s">
+      <c r="L15" s="58"/>
+      <c r="M15" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="74" t="s">
+      <c r="N15" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="92"/>
+      <c r="O15" s="88"/>
       <c r="P15" s="7"/>
-      <c r="R15" s="60"/>
+      <c r="R15" s="59"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="D16" s="45">
         <v>500</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="94"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="95"/>
+      <c r="E16" s="83">
+        <f>D16*2</f>
+        <v>1000</v>
+      </c>
+      <c r="G16" s="45">
+        <f>D16*H12+J16*H12</f>
+        <v>124100.90909090909</v>
+      </c>
+      <c r="H16" s="90">
+        <f>G16*2</f>
+        <v>248201.81818181818</v>
+      </c>
+      <c r="J16" s="2">
+        <f>Q26*Q24+U26*U24+Y26*Y24</f>
+        <v>327.33939393939391</v>
+      </c>
+      <c r="K16" s="91">
+        <f>J16*2</f>
+        <v>654.67878787878783</v>
+      </c>
       <c r="L16" s="46"/>
       <c r="M16" s="26"/>
       <c r="N16" s="27"/>
-      <c r="O16" s="91"/>
+      <c r="O16" s="23"/>
       <c r="P16" s="7"/>
-      <c r="R16" s="60"/>
+      <c r="R16" s="59"/>
     </row>
     <row r="17" spans="2:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
@@ -1470,18 +1497,24 @@
       <c r="P24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q24" s="35"/>
+      <c r="Q24" s="35">
+        <v>0.79</v>
+      </c>
       <c r="S24" s="51" t="s">
         <v>14</v>
       </c>
       <c r="T24" s="3"/>
-      <c r="U24" s="35"/>
+      <c r="U24" s="35">
+        <v>0.2</v>
+      </c>
       <c r="W24" s="51" t="s">
         <v>17</v>
       </c>
       <c r="X24" s="3"/>
-      <c r="Y24" s="35"/>
-      <c r="AA24" s="93" t="str">
+      <c r="Y24" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="AA24" s="89" t="str">
         <f>IF((Q24+U24+Y24) &gt; 1,"ERROR, percentage of rational, risk averse and loving has to sum to 1","")</f>
         <v/>
       </c>
@@ -1500,49 +1533,61 @@
       <c r="Y25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA25" s="93" t="str">
+      <c r="AA25" s="89" t="str">
         <f>IF((Q24+U24+Y24) &lt; 1,"ERROR, percentage of rational, risk averse and loving has to sum to 1","")</f>
-        <v>ERROR, percentage of rational, risk averse and loving has to sum to 1</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="N26" s="30"/>
+      <c r="Q26" s="2">
+        <f>SUM(Q31:Q42,Q48:Q61,Q67:Q73)</f>
+        <v>350.90909090909093</v>
+      </c>
       <c r="S26" s="30"/>
+      <c r="U26" s="2">
+        <f>SUM(U31:U42,U48:U61,U67:U73)</f>
+        <v>233.63636363636354</v>
+      </c>
       <c r="W26" s="30"/>
+      <c r="Y26" s="2">
+        <f>SUM(Y31:Y42,Y48:Y61,Y67:Y73)</f>
+        <v>339.39393939393943</v>
+      </c>
       <c r="AA26" s="50"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
-      <c r="N27" s="69" t="s">
+      <c r="N27" s="68" t="s">
         <v>26</v>
       </c>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
-      <c r="S27" s="70"/>
+      <c r="S27" s="69"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
-      <c r="W27" s="70"/>
+      <c r="W27" s="69"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
-      <c r="Z27" s="71"/>
+      <c r="Z27" s="70"/>
       <c r="AA27" s="50"/>
     </row>
     <row r="28" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="63"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="62"/>
       <c r="N28" s="30"/>
       <c r="S28" s="30"/>
       <c r="W28" s="30"/>
@@ -1550,18 +1595,18 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
-      <c r="C29" s="64"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82" t="s">
+      <c r="F29" s="96"/>
+      <c r="G29" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="83"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="18" t="s">
         <v>5</v>
       </c>
@@ -1582,7 +1627,7 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
-      <c r="C30" s="64"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="20"/>
       <c r="E30" s="21">
         <v>0.3</v>
@@ -1604,25 +1649,31 @@
       <c r="O30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="54" t="s">
+      <c r="P30" s="33">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="53" t="s">
         <v>28</v>
       </c>
       <c r="S30" s="30"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="54" t="s">
+      <c r="T30" s="33">
+        <v>12</v>
+      </c>
+      <c r="U30" s="53" t="s">
         <v>28</v>
       </c>
       <c r="W30" s="30"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="54" t="s">
+      <c r="X30" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="53" t="s">
         <v>28</v>
       </c>
       <c r="AA30" s="50"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
-      <c r="C31" s="64"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="20">
         <v>1</v>
       </c>
@@ -1638,21 +1689,48 @@
       <c r="H31" s="24">
         <v>50</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
+      <c r="I31" s="23">
+        <f>E$30*E31+F$30*F31</f>
+        <v>190</v>
+      </c>
+      <c r="J31" s="23">
+        <f>G$30*G31+H$30*H31</f>
+        <v>113</v>
+      </c>
+      <c r="K31" s="23">
+        <f>I31-J31</f>
+        <v>77</v>
+      </c>
       <c r="L31" s="24"/>
       <c r="N31" s="30"/>
-      <c r="Q31" s="52"/>
+      <c r="P31" s="2">
+        <v>190</v>
+      </c>
+      <c r="Q31" s="52">
+        <f>P31/33</f>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="S31" s="30"/>
-      <c r="U31" s="52"/>
+      <c r="T31" s="2">
+        <v>190</v>
+      </c>
+      <c r="U31" s="52">
+        <f>T31/33</f>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="W31" s="30"/>
-      <c r="Y31" s="52"/>
+      <c r="X31" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y31" s="52">
+        <f>X31/33</f>
+        <v>3.4242424242424243</v>
+      </c>
       <c r="AA31" s="50"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
-      <c r="C32" s="64"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="20">
         <v>2</v>
       </c>
@@ -1668,21 +1746,48 @@
       <c r="H32" s="24">
         <v>50</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="I32" s="23">
+        <f t="shared" ref="I32:I42" si="0">E$30*E32+F$30*F32</f>
+        <v>190</v>
+      </c>
+      <c r="J32" s="23">
+        <f t="shared" ref="J32:J42" si="1">G$30*G32+H$30*H32</f>
+        <v>120</v>
+      </c>
+      <c r="K32" s="23">
+        <f t="shared" ref="K32:K42" si="2">I32-J32</f>
+        <v>70</v>
+      </c>
       <c r="L32" s="24"/>
       <c r="N32" s="30"/>
-      <c r="Q32" s="52"/>
+      <c r="P32" s="2">
+        <v>190</v>
+      </c>
+      <c r="Q32" s="52">
+        <f t="shared" ref="Q32:Q42" si="3">P32/33</f>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="S32" s="30"/>
-      <c r="U32" s="52"/>
+      <c r="T32" s="2">
+        <v>190</v>
+      </c>
+      <c r="U32" s="52">
+        <f t="shared" ref="U32:U42" si="4">T32/33</f>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="W32" s="30"/>
-      <c r="Y32" s="52"/>
+      <c r="X32" s="2">
+        <v>120</v>
+      </c>
+      <c r="Y32" s="52">
+        <f t="shared" ref="Y32:Y42" si="5">X32/33</f>
+        <v>3.6363636363636362</v>
+      </c>
       <c r="AA32" s="50"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
-      <c r="C33" s="64"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="20">
         <v>3</v>
       </c>
@@ -1698,21 +1803,48 @@
       <c r="H33" s="24">
         <v>50</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
+      <c r="I33" s="23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J33" s="23">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="K33" s="23">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
       <c r="L33" s="24"/>
       <c r="N33" s="30"/>
-      <c r="Q33" s="52"/>
+      <c r="P33" s="2">
+        <v>190</v>
+      </c>
+      <c r="Q33" s="52">
+        <f t="shared" si="3"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="S33" s="30"/>
-      <c r="U33" s="52"/>
+      <c r="T33" s="2">
+        <v>190</v>
+      </c>
+      <c r="U33" s="52">
+        <f t="shared" si="4"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="W33" s="30"/>
-      <c r="Y33" s="52"/>
+      <c r="X33" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y33" s="52">
+        <f t="shared" si="5"/>
+        <v>3.8787878787878789</v>
+      </c>
       <c r="AA33" s="50"/>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
-      <c r="C34" s="64"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="20">
         <v>4</v>
       </c>
@@ -1728,21 +1860,48 @@
       <c r="H34" s="24">
         <v>50</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
+      <c r="I34" s="23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J34" s="23">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="K34" s="23">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
       <c r="L34" s="24"/>
       <c r="N34" s="30"/>
-      <c r="Q34" s="52"/>
+      <c r="P34" s="2">
+        <v>190</v>
+      </c>
+      <c r="Q34" s="52">
+        <f t="shared" si="3"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="S34" s="30"/>
-      <c r="U34" s="52"/>
+      <c r="T34" s="2">
+        <v>190</v>
+      </c>
+      <c r="U34" s="52">
+        <f t="shared" si="4"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="W34" s="30"/>
-      <c r="Y34" s="52"/>
+      <c r="X34" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y34" s="52">
+        <f t="shared" si="5"/>
+        <v>4.1818181818181817</v>
+      </c>
       <c r="AA34" s="50"/>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
-      <c r="C35" s="64"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="20">
         <v>5</v>
       </c>
@@ -1758,21 +1917,48 @@
       <c r="H35" s="24">
         <v>50</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
+      <c r="I35" s="23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J35" s="23">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="K35" s="23">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
       <c r="L35" s="24"/>
       <c r="N35" s="30"/>
-      <c r="Q35" s="52"/>
+      <c r="P35" s="2">
+        <v>190</v>
+      </c>
+      <c r="Q35" s="52">
+        <f t="shared" si="3"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="S35" s="30"/>
-      <c r="U35" s="52"/>
+      <c r="T35" s="2">
+        <v>190</v>
+      </c>
+      <c r="U35" s="52">
+        <f t="shared" si="4"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="W35" s="30"/>
-      <c r="Y35" s="52"/>
+      <c r="X35" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y35" s="52">
+        <f t="shared" si="5"/>
+        <v>4.5757575757575761</v>
+      </c>
       <c r="AA35" s="50"/>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>
-      <c r="C36" s="64"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="20">
         <v>6</v>
       </c>
@@ -1788,21 +1974,48 @@
       <c r="H36" s="24">
         <v>50</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
+      <c r="I36" s="23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J36" s="23">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="K36" s="23">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="L36" s="24"/>
       <c r="N36" s="30"/>
-      <c r="Q36" s="52"/>
+      <c r="P36" s="2">
+        <v>190</v>
+      </c>
+      <c r="Q36" s="52">
+        <f t="shared" si="3"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="S36" s="30"/>
-      <c r="U36" s="52"/>
+      <c r="T36" s="2">
+        <v>190</v>
+      </c>
+      <c r="U36" s="52">
+        <f t="shared" si="4"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="W36" s="30"/>
-      <c r="Y36" s="52"/>
+      <c r="X36" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y36" s="52">
+        <f t="shared" si="5"/>
+        <v>5.1515151515151514</v>
+      </c>
       <c r="AA36" s="50"/>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
-      <c r="C37" s="64"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="20">
         <v>7</v>
       </c>
@@ -1818,21 +2031,48 @@
       <c r="H37" s="24">
         <v>50</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
+      <c r="I37" s="23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J37" s="23">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="K37" s="23">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
       <c r="L37" s="24"/>
       <c r="N37" s="30"/>
-      <c r="Q37" s="52"/>
+      <c r="P37" s="2">
+        <v>195</v>
+      </c>
+      <c r="Q37" s="52">
+        <f t="shared" si="3"/>
+        <v>5.9090909090909092</v>
+      </c>
       <c r="S37" s="30"/>
-      <c r="U37" s="52"/>
+      <c r="T37" s="2">
+        <v>190</v>
+      </c>
+      <c r="U37" s="52">
+        <f t="shared" si="4"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="W37" s="30"/>
-      <c r="Y37" s="52"/>
+      <c r="X37" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y37" s="52">
+        <f t="shared" si="5"/>
+        <v>5.9090909090909092</v>
+      </c>
       <c r="AA37" s="50"/>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
-      <c r="C38" s="64"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="20">
         <v>8</v>
       </c>
@@ -1848,21 +2088,48 @@
       <c r="H38" s="24">
         <v>50</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
+      <c r="I38" s="23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J38" s="23">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="K38" s="23">
+        <f t="shared" si="2"/>
+        <v>-40</v>
+      </c>
       <c r="L38" s="24"/>
       <c r="N38" s="30"/>
-      <c r="Q38" s="52"/>
+      <c r="P38" s="2">
+        <v>230</v>
+      </c>
+      <c r="Q38" s="52">
+        <f t="shared" si="3"/>
+        <v>6.9696969696969697</v>
+      </c>
       <c r="S38" s="30"/>
-      <c r="U38" s="52"/>
+      <c r="T38" s="2">
+        <v>190</v>
+      </c>
+      <c r="U38" s="52">
+        <f t="shared" si="4"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="W38" s="30"/>
-      <c r="Y38" s="52"/>
+      <c r="X38" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y38" s="52">
+        <f t="shared" si="5"/>
+        <v>6.9696969696969697</v>
+      </c>
       <c r="AA38" s="50"/>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
-      <c r="C39" s="64"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="20">
         <v>9</v>
       </c>
@@ -1878,21 +2145,48 @@
       <c r="H39" s="24">
         <v>50</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
+      <c r="I39" s="23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J39" s="23">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="K39" s="23">
+        <f t="shared" si="2"/>
+        <v>-75</v>
+      </c>
       <c r="L39" s="24"/>
       <c r="N39" s="30"/>
-      <c r="Q39" s="52"/>
+      <c r="P39" s="2">
+        <v>265</v>
+      </c>
+      <c r="Q39" s="52">
+        <f t="shared" si="3"/>
+        <v>8.0303030303030312</v>
+      </c>
       <c r="S39" s="30"/>
-      <c r="U39" s="52"/>
+      <c r="T39" s="2">
+        <v>190</v>
+      </c>
+      <c r="U39" s="52">
+        <f t="shared" si="4"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="W39" s="30"/>
-      <c r="Y39" s="52"/>
+      <c r="X39" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y39" s="52">
+        <f t="shared" si="5"/>
+        <v>8.0303030303030312</v>
+      </c>
       <c r="AA39" s="50"/>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B40" s="6"/>
-      <c r="C40" s="64"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="20">
         <v>10</v>
       </c>
@@ -1908,21 +2202,48 @@
       <c r="H40" s="24">
         <v>50</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
+      <c r="I40" s="23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J40" s="23">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="K40" s="23">
+        <f t="shared" si="2"/>
+        <v>-155</v>
+      </c>
       <c r="L40" s="24"/>
       <c r="N40" s="30"/>
-      <c r="Q40" s="52"/>
+      <c r="P40" s="2">
+        <v>345</v>
+      </c>
+      <c r="Q40" s="52">
+        <f t="shared" si="3"/>
+        <v>10.454545454545455</v>
+      </c>
       <c r="S40" s="30"/>
-      <c r="U40" s="52"/>
+      <c r="T40" s="2">
+        <v>190</v>
+      </c>
+      <c r="U40" s="52">
+        <f t="shared" si="4"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="W40" s="30"/>
-      <c r="Y40" s="52"/>
+      <c r="X40" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y40" s="52">
+        <f t="shared" si="5"/>
+        <v>10.454545454545455</v>
+      </c>
       <c r="AA40" s="50"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
-      <c r="C41" s="64"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="20">
         <v>11</v>
       </c>
@@ -1938,21 +2259,48 @@
       <c r="H41" s="24">
         <v>50</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
+      <c r="I41" s="23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J41" s="23">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
+      <c r="K41" s="23">
+        <f t="shared" si="2"/>
+        <v>-255</v>
+      </c>
       <c r="L41" s="24"/>
       <c r="N41" s="30"/>
-      <c r="Q41" s="52"/>
+      <c r="P41" s="2">
+        <v>445</v>
+      </c>
+      <c r="Q41" s="52">
+        <f t="shared" si="3"/>
+        <v>13.484848484848484</v>
+      </c>
       <c r="S41" s="30"/>
-      <c r="U41" s="52"/>
+      <c r="T41" s="2">
+        <v>190</v>
+      </c>
+      <c r="U41" s="52">
+        <f t="shared" si="4"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="W41" s="30"/>
-      <c r="Y41" s="52"/>
+      <c r="X41" s="2">
+        <v>445</v>
+      </c>
+      <c r="Y41" s="52">
+        <f t="shared" si="5"/>
+        <v>13.484848484848484</v>
+      </c>
       <c r="AA41" s="50"/>
     </row>
     <row r="42" spans="2:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
-      <c r="C42" s="64"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="25">
         <v>12</v>
       </c>
@@ -1968,25 +2316,49 @@
       <c r="H42" s="27">
         <v>50</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
+      <c r="I42" s="23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="J42" s="23">
+        <f t="shared" si="1"/>
+        <v>645</v>
+      </c>
+      <c r="K42" s="23">
+        <f t="shared" si="2"/>
+        <v>-455</v>
+      </c>
       <c r="L42" s="24"/>
       <c r="N42" s="30"/>
       <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="53"/>
+      <c r="P42" s="16">
+        <v>645</v>
+      </c>
+      <c r="Q42" s="52">
+        <f t="shared" si="3"/>
+        <v>19.545454545454547</v>
+      </c>
       <c r="S42" s="30"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="53"/>
+      <c r="T42" s="16">
+        <v>190</v>
+      </c>
+      <c r="U42" s="52">
+        <f t="shared" si="4"/>
+        <v>5.7575757575757578</v>
+      </c>
       <c r="W42" s="30"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="53"/>
+      <c r="X42" s="16">
+        <v>645</v>
+      </c>
+      <c r="Y42" s="52">
+        <f t="shared" si="5"/>
+        <v>19.545454545454547</v>
+      </c>
       <c r="AA42" s="50"/>
     </row>
     <row r="43" spans="2:27" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
-      <c r="C43" s="65"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
@@ -2003,33 +2375,33 @@
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="68"/>
-      <c r="Y44" s="68"/>
-      <c r="Z44" s="68"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="67"/>
+      <c r="V44" s="67"/>
+      <c r="W44" s="67"/>
+      <c r="X44" s="67"/>
+      <c r="Y44" s="67"/>
+      <c r="Z44" s="67"/>
       <c r="AA44" s="7"/>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="63"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="62"/>
       <c r="N45" s="30"/>
       <c r="S45" s="30"/>
       <c r="W45" s="30"/>
@@ -2037,18 +2409,18 @@
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
-      <c r="C46" s="64"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="82" t="s">
+      <c r="E46" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82" t="s">
+      <c r="F46" s="96"/>
+      <c r="G46" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="83"/>
+      <c r="H46" s="97"/>
       <c r="I46" s="18" t="s">
         <v>5</v>
       </c>
@@ -2069,7 +2441,7 @@
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
-      <c r="C47" s="64"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="20"/>
       <c r="E47" s="21">
         <v>0.9</v>
@@ -2091,25 +2463,31 @@
       <c r="O47" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="54" t="s">
+      <c r="P47" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="53" t="s">
         <v>28</v>
       </c>
       <c r="S47" s="30"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="54" t="s">
+      <c r="T47" s="33">
+        <v>14</v>
+      </c>
+      <c r="U47" s="53" t="s">
         <v>28</v>
       </c>
       <c r="W47" s="30"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="54" t="s">
+      <c r="X47" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="53" t="s">
         <v>28</v>
       </c>
       <c r="AA47" s="50"/>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
-      <c r="C48" s="64"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="20">
         <v>1</v>
       </c>
@@ -2125,21 +2503,48 @@
       <c r="H48" s="24">
         <v>50</v>
       </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
+      <c r="I48" s="23">
+        <f>E$47*E48+F$47*F48</f>
+        <v>390</v>
+      </c>
+      <c r="J48" s="23">
+        <f>G$47*G48+H$47*H48</f>
+        <v>393</v>
+      </c>
+      <c r="K48" s="23">
+        <f>I48-J48</f>
+        <v>-3</v>
+      </c>
       <c r="L48" s="24"/>
       <c r="N48" s="30"/>
-      <c r="Q48" s="52"/>
+      <c r="P48" s="2">
+        <v>393</v>
+      </c>
+      <c r="Q48" s="52">
+        <f>P48/33</f>
+        <v>11.909090909090908</v>
+      </c>
       <c r="S48" s="30"/>
-      <c r="U48" s="52"/>
+      <c r="T48" s="2">
+        <v>390</v>
+      </c>
+      <c r="U48" s="52">
+        <f>T48/33</f>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W48" s="30"/>
-      <c r="Y48" s="52"/>
+      <c r="X48" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y48" s="52">
+        <f>X48/33</f>
+        <v>11.909090909090908</v>
+      </c>
       <c r="AA48" s="50"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
-      <c r="C49" s="64"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="20">
         <v>2</v>
       </c>
@@ -2155,21 +2560,48 @@
       <c r="H49" s="24">
         <v>50</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
+      <c r="I49" s="23">
+        <f t="shared" ref="I49:I61" si="6">E$47*E49+F$47*F49</f>
+        <v>390</v>
+      </c>
+      <c r="J49" s="23">
+        <f t="shared" ref="J49:J61" si="7">G$47*G49+H$47*H49</f>
+        <v>407</v>
+      </c>
+      <c r="K49" s="23">
+        <f t="shared" ref="K49:K61" si="8">I49-J49</f>
+        <v>-17</v>
+      </c>
       <c r="L49" s="24"/>
       <c r="N49" s="30"/>
-      <c r="Q49" s="52"/>
+      <c r="P49" s="2">
+        <v>407</v>
+      </c>
+      <c r="Q49" s="52">
+        <f t="shared" ref="Q49:Q61" si="9">P49/33</f>
+        <v>12.333333333333334</v>
+      </c>
       <c r="S49" s="30"/>
-      <c r="U49" s="52"/>
+      <c r="T49" s="2">
+        <v>390</v>
+      </c>
+      <c r="U49" s="52">
+        <f t="shared" ref="U49:U61" si="10">T49/33</f>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W49" s="30"/>
-      <c r="Y49" s="52"/>
+      <c r="X49" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y49" s="52">
+        <f t="shared" ref="Y49:Y61" si="11">X49/33</f>
+        <v>12.333333333333334</v>
+      </c>
       <c r="AA49" s="50"/>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B50" s="6"/>
-      <c r="C50" s="64"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="20">
         <v>3</v>
       </c>
@@ -2185,21 +2617,48 @@
       <c r="H50" s="24">
         <v>50</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
+      <c r="I50" s="23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="J50" s="23">
+        <f t="shared" si="7"/>
+        <v>421</v>
+      </c>
+      <c r="K50" s="23">
+        <f t="shared" si="8"/>
+        <v>-31</v>
+      </c>
       <c r="L50" s="24"/>
       <c r="N50" s="30"/>
-      <c r="Q50" s="52"/>
+      <c r="P50" s="2">
+        <v>421</v>
+      </c>
+      <c r="Q50" s="52">
+        <f t="shared" si="9"/>
+        <v>12.757575757575758</v>
+      </c>
       <c r="S50" s="30"/>
-      <c r="U50" s="52"/>
+      <c r="T50" s="2">
+        <v>390</v>
+      </c>
+      <c r="U50" s="52">
+        <f t="shared" si="10"/>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W50" s="30"/>
-      <c r="Y50" s="52"/>
+      <c r="X50" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y50" s="52">
+        <f t="shared" si="11"/>
+        <v>12.757575757575758</v>
+      </c>
       <c r="AA50" s="50"/>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
-      <c r="C51" s="64"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="20">
         <v>4</v>
       </c>
@@ -2215,21 +2674,48 @@
       <c r="H51" s="24">
         <v>50</v>
       </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
+      <c r="I51" s="23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="J51" s="23">
+        <f t="shared" si="7"/>
+        <v>435</v>
+      </c>
+      <c r="K51" s="23">
+        <f t="shared" si="8"/>
+        <v>-45</v>
+      </c>
       <c r="L51" s="24"/>
       <c r="N51" s="30"/>
-      <c r="Q51" s="52"/>
+      <c r="P51" s="2">
+        <v>435</v>
+      </c>
+      <c r="Q51" s="52">
+        <f t="shared" si="9"/>
+        <v>13.181818181818182</v>
+      </c>
       <c r="S51" s="30"/>
-      <c r="U51" s="52"/>
+      <c r="T51" s="2">
+        <v>390</v>
+      </c>
+      <c r="U51" s="52">
+        <f t="shared" si="10"/>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W51" s="30"/>
-      <c r="Y51" s="52"/>
+      <c r="X51" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y51" s="52">
+        <f t="shared" si="11"/>
+        <v>13.181818181818182</v>
+      </c>
       <c r="AA51" s="50"/>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B52" s="6"/>
-      <c r="C52" s="64"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="20">
         <v>5</v>
       </c>
@@ -2245,21 +2731,48 @@
       <c r="H52" s="24">
         <v>50</v>
       </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
+      <c r="I52" s="23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="J52" s="23">
+        <f t="shared" si="7"/>
+        <v>449</v>
+      </c>
+      <c r="K52" s="23">
+        <f t="shared" si="8"/>
+        <v>-59</v>
+      </c>
       <c r="L52" s="24"/>
       <c r="N52" s="30"/>
-      <c r="Q52" s="52"/>
+      <c r="P52" s="2">
+        <v>449</v>
+      </c>
+      <c r="Q52" s="52">
+        <f t="shared" si="9"/>
+        <v>13.606060606060606</v>
+      </c>
       <c r="S52" s="30"/>
-      <c r="U52" s="52"/>
+      <c r="T52" s="2">
+        <v>390</v>
+      </c>
+      <c r="U52" s="52">
+        <f t="shared" si="10"/>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W52" s="30"/>
-      <c r="Y52" s="52"/>
+      <c r="X52" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y52" s="52">
+        <f t="shared" si="11"/>
+        <v>13.606060606060606</v>
+      </c>
       <c r="AA52" s="50"/>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
-      <c r="C53" s="64"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="20">
         <v>6</v>
       </c>
@@ -2275,21 +2788,48 @@
       <c r="H53" s="24">
         <v>50</v>
       </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
+      <c r="I53" s="23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="J53" s="23">
+        <f t="shared" si="7"/>
+        <v>469.99999999999994</v>
+      </c>
+      <c r="K53" s="23">
+        <f t="shared" si="8"/>
+        <v>-79.999999999999943</v>
+      </c>
       <c r="L53" s="24"/>
       <c r="N53" s="30"/>
-      <c r="Q53" s="52"/>
+      <c r="P53" s="2">
+        <v>469.99999999999994</v>
+      </c>
+      <c r="Q53" s="52">
+        <f t="shared" si="9"/>
+        <v>14.24242424242424</v>
+      </c>
       <c r="S53" s="30"/>
-      <c r="U53" s="52"/>
+      <c r="T53" s="2">
+        <v>390</v>
+      </c>
+      <c r="U53" s="52">
+        <f t="shared" si="10"/>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W53" s="30"/>
-      <c r="Y53" s="52"/>
+      <c r="X53" s="2">
+        <v>469.99999999999994</v>
+      </c>
+      <c r="Y53" s="52">
+        <f t="shared" si="11"/>
+        <v>14.24242424242424</v>
+      </c>
       <c r="AA53" s="50"/>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B54" s="6"/>
-      <c r="C54" s="64"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="20">
         <v>7</v>
       </c>
@@ -2305,21 +2845,48 @@
       <c r="H54" s="24">
         <v>50</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
+      <c r="I54" s="23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="J54" s="23">
+        <f t="shared" si="7"/>
+        <v>490.99999999999994</v>
+      </c>
+      <c r="K54" s="23">
+        <f t="shared" si="8"/>
+        <v>-100.99999999999994</v>
+      </c>
       <c r="L54" s="24"/>
       <c r="N54" s="30"/>
-      <c r="Q54" s="52"/>
+      <c r="P54" s="2">
+        <v>490.99999999999994</v>
+      </c>
+      <c r="Q54" s="52">
+        <f t="shared" si="9"/>
+        <v>14.878787878787877</v>
+      </c>
       <c r="S54" s="30"/>
-      <c r="U54" s="52"/>
+      <c r="T54" s="2">
+        <v>390</v>
+      </c>
+      <c r="U54" s="52">
+        <f t="shared" si="10"/>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W54" s="30"/>
-      <c r="Y54" s="52"/>
+      <c r="X54" s="2">
+        <v>490.99999999999994</v>
+      </c>
+      <c r="Y54" s="52">
+        <f t="shared" si="11"/>
+        <v>14.878787878787877</v>
+      </c>
       <c r="AA54" s="50"/>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
-      <c r="C55" s="64"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="20">
         <v>8</v>
       </c>
@@ -2335,21 +2902,48 @@
       <c r="H55" s="24">
         <v>50</v>
       </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
+      <c r="I55" s="23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="J55" s="23">
+        <f t="shared" si="7"/>
+        <v>519</v>
+      </c>
+      <c r="K55" s="23">
+        <f t="shared" si="8"/>
+        <v>-129</v>
+      </c>
       <c r="L55" s="24"/>
       <c r="N55" s="30"/>
-      <c r="Q55" s="52"/>
+      <c r="P55" s="2">
+        <v>519</v>
+      </c>
+      <c r="Q55" s="52">
+        <f t="shared" si="9"/>
+        <v>15.727272727272727</v>
+      </c>
       <c r="S55" s="30"/>
-      <c r="U55" s="52"/>
+      <c r="T55" s="2">
+        <v>390</v>
+      </c>
+      <c r="U55" s="52">
+        <f t="shared" si="10"/>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W55" s="30"/>
-      <c r="Y55" s="52"/>
+      <c r="X55" s="2">
+        <v>519</v>
+      </c>
+      <c r="Y55" s="52">
+        <f t="shared" si="11"/>
+        <v>15.727272727272727</v>
+      </c>
       <c r="AA55" s="50"/>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B56" s="6"/>
-      <c r="C56" s="64"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="20">
         <v>9</v>
       </c>
@@ -2365,21 +2959,48 @@
       <c r="H56" s="24">
         <v>50</v>
       </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
+      <c r="I56" s="23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="J56" s="23">
+        <f t="shared" si="7"/>
+        <v>554</v>
+      </c>
+      <c r="K56" s="23">
+        <f t="shared" si="8"/>
+        <v>-164</v>
+      </c>
       <c r="L56" s="24"/>
       <c r="N56" s="30"/>
-      <c r="Q56" s="52"/>
+      <c r="P56" s="2">
+        <v>554</v>
+      </c>
+      <c r="Q56" s="52">
+        <f t="shared" si="9"/>
+        <v>16.787878787878789</v>
+      </c>
       <c r="S56" s="30"/>
-      <c r="U56" s="52"/>
+      <c r="T56" s="2">
+        <v>390</v>
+      </c>
+      <c r="U56" s="52">
+        <f t="shared" si="10"/>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W56" s="30"/>
-      <c r="Y56" s="52"/>
+      <c r="X56" s="2">
+        <v>554</v>
+      </c>
+      <c r="Y56" s="52">
+        <f t="shared" si="11"/>
+        <v>16.787878787878789</v>
+      </c>
       <c r="AA56" s="50"/>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
-      <c r="C57" s="64"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="20">
         <v>10</v>
       </c>
@@ -2395,21 +3016,48 @@
       <c r="H57" s="24">
         <v>50</v>
       </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
+      <c r="I57" s="23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="J57" s="23">
+        <f t="shared" si="7"/>
+        <v>596</v>
+      </c>
+      <c r="K57" s="23">
+        <f t="shared" si="8"/>
+        <v>-206</v>
+      </c>
       <c r="L57" s="24"/>
       <c r="N57" s="30"/>
-      <c r="Q57" s="52"/>
+      <c r="P57" s="2">
+        <v>596</v>
+      </c>
+      <c r="Q57" s="52">
+        <f t="shared" si="9"/>
+        <v>18.060606060606062</v>
+      </c>
       <c r="S57" s="30"/>
-      <c r="U57" s="52"/>
+      <c r="T57" s="2">
+        <v>390</v>
+      </c>
+      <c r="U57" s="52">
+        <f t="shared" si="10"/>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W57" s="30"/>
-      <c r="Y57" s="52"/>
+      <c r="X57" s="2">
+        <v>596</v>
+      </c>
+      <c r="Y57" s="52">
+        <f t="shared" si="11"/>
+        <v>18.060606060606062</v>
+      </c>
       <c r="AA57" s="50"/>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B58" s="6"/>
-      <c r="C58" s="64"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="20">
         <v>11</v>
       </c>
@@ -2425,21 +3073,48 @@
       <c r="H58" s="24">
         <v>50</v>
       </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
+      <c r="I58" s="23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="J58" s="23">
+        <f t="shared" si="7"/>
+        <v>645</v>
+      </c>
+      <c r="K58" s="23">
+        <f t="shared" si="8"/>
+        <v>-255</v>
+      </c>
       <c r="L58" s="24"/>
       <c r="N58" s="30"/>
-      <c r="Q58" s="52"/>
+      <c r="P58" s="2">
+        <v>645</v>
+      </c>
+      <c r="Q58" s="52">
+        <f t="shared" si="9"/>
+        <v>19.545454545454547</v>
+      </c>
       <c r="S58" s="30"/>
-      <c r="U58" s="52"/>
+      <c r="T58" s="2">
+        <v>390</v>
+      </c>
+      <c r="U58" s="52">
+        <f t="shared" si="10"/>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W58" s="30"/>
-      <c r="Y58" s="52"/>
+      <c r="X58" s="2">
+        <v>645</v>
+      </c>
+      <c r="Y58" s="52">
+        <f t="shared" si="11"/>
+        <v>19.545454545454547</v>
+      </c>
       <c r="AA58" s="50"/>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
-      <c r="C59" s="64"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="20">
         <v>12</v>
       </c>
@@ -2455,21 +3130,48 @@
       <c r="H59" s="24">
         <v>50</v>
       </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
+      <c r="I59" s="23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="J59" s="23">
+        <f t="shared" si="7"/>
+        <v>715</v>
+      </c>
+      <c r="K59" s="23">
+        <f t="shared" si="8"/>
+        <v>-325</v>
+      </c>
       <c r="L59" s="24"/>
       <c r="N59" s="30"/>
-      <c r="Q59" s="52"/>
+      <c r="P59" s="2">
+        <v>715</v>
+      </c>
+      <c r="Q59" s="52">
+        <f t="shared" si="9"/>
+        <v>21.666666666666668</v>
+      </c>
       <c r="S59" s="30"/>
-      <c r="U59" s="52"/>
+      <c r="T59" s="2">
+        <v>390</v>
+      </c>
+      <c r="U59" s="52">
+        <f t="shared" si="10"/>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W59" s="30"/>
-      <c r="Y59" s="52"/>
+      <c r="X59" s="2">
+        <v>715</v>
+      </c>
+      <c r="Y59" s="52">
+        <f t="shared" si="11"/>
+        <v>21.666666666666668</v>
+      </c>
       <c r="AA59" s="50"/>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
-      <c r="C60" s="64"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="20">
         <v>13</v>
       </c>
@@ -2485,21 +3187,48 @@
       <c r="H60" s="24">
         <v>50</v>
       </c>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
+      <c r="I60" s="23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="J60" s="23">
+        <f t="shared" si="7"/>
+        <v>785</v>
+      </c>
+      <c r="K60" s="23">
+        <f t="shared" si="8"/>
+        <v>-395</v>
+      </c>
       <c r="L60" s="24"/>
       <c r="N60" s="30"/>
-      <c r="Q60" s="52"/>
+      <c r="P60" s="2">
+        <v>785</v>
+      </c>
+      <c r="Q60" s="52">
+        <f t="shared" si="9"/>
+        <v>23.787878787878789</v>
+      </c>
       <c r="S60" s="30"/>
-      <c r="U60" s="52"/>
+      <c r="T60" s="2">
+        <v>390</v>
+      </c>
+      <c r="U60" s="52">
+        <f t="shared" si="10"/>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W60" s="30"/>
-      <c r="Y60" s="52"/>
+      <c r="X60" s="2">
+        <v>785</v>
+      </c>
+      <c r="Y60" s="52">
+        <f t="shared" si="11"/>
+        <v>23.787878787878789</v>
+      </c>
       <c r="AA60" s="50"/>
     </row>
     <row r="61" spans="2:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
-      <c r="C61" s="64"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="25">
         <v>14</v>
       </c>
@@ -2515,26 +3244,50 @@
       <c r="H61" s="29">
         <v>50</v>
       </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
+      <c r="I61" s="23">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="J61" s="23">
+        <f t="shared" si="7"/>
+        <v>924.99999999999989</v>
+      </c>
+      <c r="K61" s="23">
+        <f t="shared" si="8"/>
+        <v>-534.99999999999989</v>
+      </c>
       <c r="L61" s="24"/>
       <c r="N61" s="30"/>
       <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="53"/>
+      <c r="P61" s="16">
+        <v>924.99999999999989</v>
+      </c>
+      <c r="Q61" s="52">
+        <f t="shared" si="9"/>
+        <v>28.030303030303028</v>
+      </c>
       <c r="S61" s="30"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="53"/>
+      <c r="T61" s="16">
+        <v>390</v>
+      </c>
+      <c r="U61" s="52">
+        <f t="shared" si="10"/>
+        <v>11.818181818181818</v>
+      </c>
       <c r="W61" s="30"/>
-      <c r="X61" s="16"/>
-      <c r="Y61" s="53"/>
+      <c r="X61" s="16">
+        <v>924.99999999999989</v>
+      </c>
+      <c r="Y61" s="52">
+        <f t="shared" si="11"/>
+        <v>28.030303030303028</v>
+      </c>
       <c r="AA61" s="50"/>
     </row>
     <row r="62" spans="2:27" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B62" s="6"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="66"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="65"/>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
@@ -2551,33 +3304,33 @@
     <row r="63" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B63" s="6"/>
       <c r="D63" s="3"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="68"/>
-      <c r="Q63" s="68"/>
-      <c r="R63" s="68"/>
-      <c r="S63" s="68"/>
-      <c r="T63" s="68"/>
-      <c r="U63" s="68"/>
-      <c r="V63" s="68"/>
-      <c r="W63" s="68"/>
-      <c r="X63" s="68"/>
-      <c r="Y63" s="68"/>
-      <c r="Z63" s="68"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
       <c r="AA63" s="7"/>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B64" s="6"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="63"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="62"/>
       <c r="N64" s="30"/>
       <c r="O64" s="2" t="s">
         <v>18</v>
@@ -2591,18 +3344,18 @@
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
-      <c r="C65" s="64"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="82" t="s">
+      <c r="E65" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82" t="s">
+      <c r="F65" s="96"/>
+      <c r="G65" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="H65" s="83"/>
+      <c r="H65" s="97"/>
       <c r="I65" s="18" t="s">
         <v>5</v>
       </c>
@@ -2623,7 +3376,7 @@
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
-      <c r="C66" s="64"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="20"/>
       <c r="E66" s="21">
         <v>0.5</v>
@@ -2648,28 +3401,28 @@
       <c r="P66" s="33">
         <v>1</v>
       </c>
-      <c r="Q66" s="54" t="s">
+      <c r="Q66" s="53" t="s">
         <v>28</v>
       </c>
       <c r="S66" s="30"/>
       <c r="T66" s="33">
         <v>5</v>
       </c>
-      <c r="U66" s="54" t="s">
+      <c r="U66" s="53" t="s">
         <v>28</v>
       </c>
       <c r="W66" s="30"/>
       <c r="X66" s="33">
-        <v>1</v>
-      </c>
-      <c r="Y66" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="53" t="s">
         <v>28</v>
       </c>
       <c r="AA66" s="50"/>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
-      <c r="C67" s="64"/>
+      <c r="C67" s="63"/>
       <c r="D67" s="20">
         <v>1</v>
       </c>
@@ -2685,21 +3438,48 @@
       <c r="H67" s="24">
         <v>-210</v>
       </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
+      <c r="I67" s="23">
+        <f>E$66*E67+F$66*F67</f>
+        <v>105</v>
+      </c>
+      <c r="J67" s="23">
+        <f>G$66*G67+H$66*H67</f>
+        <v>45</v>
+      </c>
+      <c r="K67" s="23">
+        <f>I67-J67</f>
+        <v>60</v>
+      </c>
       <c r="L67" s="24"/>
       <c r="N67" s="30"/>
-      <c r="Q67" s="52"/>
+      <c r="P67" s="2">
+        <v>105</v>
+      </c>
+      <c r="Q67" s="52">
+        <f>P67/33</f>
+        <v>3.1818181818181817</v>
+      </c>
       <c r="S67" s="30"/>
-      <c r="U67" s="52"/>
+      <c r="T67" s="2">
+        <v>105</v>
+      </c>
+      <c r="U67" s="52">
+        <f>T67/33</f>
+        <v>3.1818181818181817</v>
+      </c>
       <c r="W67" s="30"/>
-      <c r="Y67" s="52"/>
+      <c r="X67" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y67" s="52">
+        <f>X67/33</f>
+        <v>1.3636363636363635</v>
+      </c>
       <c r="AA67" s="50"/>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
-      <c r="C68" s="64"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="20">
         <v>2</v>
       </c>
@@ -2715,21 +3495,48 @@
       <c r="H68" s="24">
         <v>-210</v>
       </c>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
+      <c r="I68" s="23">
+        <f t="shared" ref="I68:I73" si="12">E$66*E68+F$66*F68</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="23">
+        <f t="shared" ref="J68:J73" si="13">G$66*G68+H$66*H68</f>
+        <v>45</v>
+      </c>
+      <c r="K68" s="23">
+        <f t="shared" ref="K68:K73" si="14">I68-J68</f>
+        <v>-45</v>
+      </c>
       <c r="L68" s="24"/>
       <c r="N68" s="30"/>
-      <c r="Q68" s="52"/>
+      <c r="P68" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q68" s="52">
+        <f t="shared" ref="Q68:Q73" si="15">P68/33</f>
+        <v>1.3636363636363635</v>
+      </c>
       <c r="S68" s="30"/>
-      <c r="U68" s="52"/>
+      <c r="T68" s="2">
+        <v>0</v>
+      </c>
+      <c r="U68" s="52">
+        <f t="shared" ref="U68:U73" si="16">T68/33</f>
+        <v>0</v>
+      </c>
       <c r="W68" s="30"/>
-      <c r="Y68" s="52"/>
+      <c r="X68" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y68" s="52">
+        <f t="shared" ref="Y68:Y73" si="17">X68/33</f>
+        <v>1.3636363636363635</v>
+      </c>
       <c r="AA68" s="50"/>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
-      <c r="C69" s="64"/>
+      <c r="C69" s="63"/>
       <c r="D69" s="20">
         <v>3</v>
       </c>
@@ -2745,21 +3552,48 @@
       <c r="H69" s="24">
         <v>-210</v>
       </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
+      <c r="I69" s="23">
+        <f t="shared" si="12"/>
+        <v>-15</v>
+      </c>
+      <c r="J69" s="23">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="K69" s="23">
+        <f t="shared" si="14"/>
+        <v>-60</v>
+      </c>
       <c r="L69" s="24"/>
       <c r="N69" s="30"/>
-      <c r="Q69" s="52"/>
+      <c r="P69" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q69" s="52">
+        <f t="shared" si="15"/>
+        <v>1.3636363636363635</v>
+      </c>
       <c r="S69" s="30"/>
-      <c r="U69" s="52"/>
+      <c r="T69" s="2">
+        <v>-15</v>
+      </c>
+      <c r="U69" s="52">
+        <f t="shared" si="16"/>
+        <v>-0.45454545454545453</v>
+      </c>
       <c r="W69" s="30"/>
-      <c r="Y69" s="52"/>
+      <c r="X69" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y69" s="52">
+        <f t="shared" si="17"/>
+        <v>1.3636363636363635</v>
+      </c>
       <c r="AA69" s="50"/>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
-      <c r="C70" s="64"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="20">
         <v>4</v>
       </c>
@@ -2775,21 +3609,48 @@
       <c r="H70" s="24">
         <v>-160</v>
       </c>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
+      <c r="I70" s="23">
+        <f t="shared" si="12"/>
+        <v>-15</v>
+      </c>
+      <c r="J70" s="23">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="K70" s="23">
+        <f t="shared" si="14"/>
+        <v>-85</v>
+      </c>
       <c r="L70" s="24"/>
       <c r="N70" s="30"/>
-      <c r="Q70" s="52"/>
+      <c r="P70" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q70" s="52">
+        <f t="shared" si="15"/>
+        <v>2.1212121212121211</v>
+      </c>
       <c r="S70" s="30"/>
-      <c r="U70" s="52"/>
+      <c r="T70" s="2">
+        <v>-15</v>
+      </c>
+      <c r="U70" s="52">
+        <f t="shared" si="16"/>
+        <v>-0.45454545454545453</v>
+      </c>
       <c r="W70" s="30"/>
-      <c r="Y70" s="52"/>
+      <c r="X70" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y70" s="52">
+        <f t="shared" si="17"/>
+        <v>2.1212121212121211</v>
+      </c>
       <c r="AA70" s="50"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B71" s="6"/>
-      <c r="C71" s="64"/>
+      <c r="C71" s="63"/>
       <c r="D71" s="20">
         <v>5</v>
       </c>
@@ -2805,21 +3666,48 @@
       <c r="H71" s="24">
         <v>-160</v>
       </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
+      <c r="I71" s="23">
+        <f t="shared" si="12"/>
+        <v>-35</v>
+      </c>
+      <c r="J71" s="23">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="K71" s="23">
+        <f t="shared" si="14"/>
+        <v>-105</v>
+      </c>
       <c r="L71" s="24"/>
       <c r="N71" s="30"/>
-      <c r="Q71" s="52"/>
+      <c r="P71" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q71" s="52">
+        <f t="shared" si="15"/>
+        <v>2.1212121212121211</v>
+      </c>
       <c r="S71" s="30"/>
-      <c r="U71" s="52"/>
+      <c r="T71" s="2">
+        <v>-35</v>
+      </c>
+      <c r="U71" s="52">
+        <f t="shared" si="16"/>
+        <v>-1.0606060606060606</v>
+      </c>
       <c r="W71" s="30"/>
-      <c r="Y71" s="52"/>
+      <c r="X71" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y71" s="52">
+        <f t="shared" si="17"/>
+        <v>2.1212121212121211</v>
+      </c>
       <c r="AA71" s="50"/>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B72" s="6"/>
-      <c r="C72" s="64"/>
+      <c r="C72" s="63"/>
       <c r="D72" s="20">
         <v>6</v>
       </c>
@@ -2835,21 +3723,48 @@
       <c r="H72" s="24">
         <v>-140</v>
       </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
+      <c r="I72" s="23">
+        <f t="shared" si="12"/>
+        <v>-35</v>
+      </c>
+      <c r="J72" s="23">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="K72" s="23">
+        <f t="shared" si="14"/>
+        <v>-115</v>
+      </c>
       <c r="L72" s="24"/>
       <c r="N72" s="30"/>
-      <c r="Q72" s="52"/>
+      <c r="P72" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q72" s="52">
+        <f t="shared" si="15"/>
+        <v>2.4242424242424243</v>
+      </c>
       <c r="S72" s="30"/>
-      <c r="U72" s="52"/>
+      <c r="T72" s="2">
+        <v>-35</v>
+      </c>
+      <c r="U72" s="52">
+        <f t="shared" si="16"/>
+        <v>-1.0606060606060606</v>
+      </c>
       <c r="W72" s="30"/>
-      <c r="Y72" s="52"/>
+      <c r="X72" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y72" s="52">
+        <f t="shared" si="17"/>
+        <v>2.4242424242424243</v>
+      </c>
       <c r="AA72" s="50"/>
     </row>
     <row r="73" spans="2:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
-      <c r="C73" s="64"/>
+      <c r="C73" s="63"/>
       <c r="D73" s="25">
         <v>7</v>
       </c>
@@ -2865,26 +3780,50 @@
       <c r="H73" s="27">
         <v>-110</v>
       </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
+      <c r="I73" s="23">
+        <f t="shared" si="12"/>
+        <v>-35</v>
+      </c>
+      <c r="J73" s="23">
+        <f t="shared" si="13"/>
+        <v>95</v>
+      </c>
+      <c r="K73" s="23">
+        <f t="shared" si="14"/>
+        <v>-130</v>
+      </c>
       <c r="L73" s="24"/>
       <c r="N73" s="30"/>
       <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="53"/>
+      <c r="P73" s="16">
+        <v>95</v>
+      </c>
+      <c r="Q73" s="52">
+        <f t="shared" si="15"/>
+        <v>2.8787878787878789</v>
+      </c>
       <c r="S73" s="30"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="53"/>
+      <c r="T73" s="16">
+        <v>-35</v>
+      </c>
+      <c r="U73" s="52">
+        <f t="shared" si="16"/>
+        <v>-1.0606060606060606</v>
+      </c>
       <c r="W73" s="30"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="53"/>
+      <c r="X73" s="16">
+        <v>95</v>
+      </c>
+      <c r="Y73" s="52">
+        <f t="shared" si="17"/>
+        <v>2.8787878787878789</v>
+      </c>
       <c r="AA73" s="50"/>
     </row>
     <row r="74" spans="2:27" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B74" s="6"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="66"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
@@ -2911,19 +3850,19 @@
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
-      <c r="N75" s="67"/>
-      <c r="O75" s="67"/>
-      <c r="P75" s="67"/>
-      <c r="Q75" s="67"/>
-      <c r="R75" s="67"/>
-      <c r="S75" s="67"/>
-      <c r="T75" s="67"/>
-      <c r="U75" s="67"/>
-      <c r="V75" s="67"/>
-      <c r="W75" s="67"/>
-      <c r="X75" s="67"/>
-      <c r="Y75" s="67"/>
-      <c r="Z75" s="67"/>
+      <c r="N75" s="66"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="66"/>
+      <c r="Q75" s="66"/>
+      <c r="R75" s="66"/>
+      <c r="S75" s="66"/>
+      <c r="T75" s="66"/>
+      <c r="U75" s="66"/>
+      <c r="V75" s="66"/>
+      <c r="W75" s="66"/>
+      <c r="X75" s="66"/>
+      <c r="Y75" s="66"/>
+      <c r="Z75" s="66"/>
       <c r="AA75" s="12"/>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.2">
@@ -2958,8 +3897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C255BF66-D383-4E44-8050-1C8E2FDAF7DE}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="239" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2968,8 +3907,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="96"/>
-      <c r="B1" s="97" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="93" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="4"/>
@@ -2984,197 +3923,197 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="98">
+      <c r="A2" s="94">
         <v>1</v>
       </c>
-      <c r="B2" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
+      <c r="B2" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="98">
+      <c r="A3" s="94">
         <v>2</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="98">
+      <c r="A4" s="94">
         <v>3</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="98">
+      <c r="A5" s="94">
         <v>4</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="98">
+      <c r="A6" s="94">
         <v>5</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="98">
+      <c r="A7" s="94">
         <v>6</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="98">
+      <c r="A8" s="94">
         <v>7</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="98">
+      <c r="A9" s="94">
         <v>8</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="98">
+      <c r="A10" s="94">
         <v>9</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="98">
+      <c r="A11" s="94">
         <v>10</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
